--- a/momentum_eta.xlsx
+++ b/momentum_eta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="13260"/>
+    <workbookView windowWidth="23415" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>0.05</t>
   </si>
@@ -34,93 +34,31 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>68.6</t>
+    <t>Momentum 0</t>
   </si>
   <si>
-    <t>62.2</t>
+    <t>Momentum 0.05</t>
   </si>
   <si>
-    <t>68.2</t>
+    <t>Momentum 0.1</t>
   </si>
   <si>
-    <t>67.8</t>
+    <t>Momentum 0.5</t>
   </si>
   <si>
-    <t>64.6</t>
-  </si>
-  <si>
-    <t>61.2</t>
-  </si>
-  <si>
-    <t>64.4</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>66.4</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>65.4</t>
-  </si>
-  <si>
-    <t>66.6</t>
-  </si>
-  <si>
-    <t>59.4</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>59.6</t>
-  </si>
-  <si>
-    <t>65.6</t>
-  </si>
-  <si>
-    <t>60.2</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>63.2</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>58.8</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>53.4</t>
-  </si>
-  <si>
-    <t>55.8</t>
+    <t>Momentum 0.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,25 +77,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +92,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,15 +146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,32 +166,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,21 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +204,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,181 +228,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,21 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -527,16 +450,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +475,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,139 +518,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,9 +663,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -783,6 +725,1316 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Error de conjunto de test</a:t>
+            </a:r>
+            <a:endParaRPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Momentum 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="0.0%">
+                  <c:v>0.686</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.0%">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.0%">
+                  <c:v>0.682</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0%">
+                  <c:v>0.678</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0%">
+                  <c:v>0.646</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0%">
+                  <c:v>0.612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Momentum 0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="0.0%">
+                  <c:v>0.644</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.0%">
+                  <c:v>0.678</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.0%">
+                  <c:v>0.606</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0%">
+                  <c:v>0.682</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0%">
+                  <c:v>0.664</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0%">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Momentum 0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="0.0%">
+                  <c:v>0.654</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.0%">
+                  <c:v>0.666</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.0%">
+                  <c:v>0.646</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0%">
+                  <c:v>0.594</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0%">
+                  <c:v>0.664</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0%">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Momentum 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="0.0%">
+                  <c:v>0.644</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.0%">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.0%">
+                  <c:v>0.596</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0%">
+                  <c:v>0.656</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0%">
+                  <c:v>0.602</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0%">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Momentum 0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="0.0%">
+                  <c:v>0.632</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.0%">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.0%">
+                  <c:v>0.588</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.0%">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0%">
+                  <c:v>0.534</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0%">
+                  <c:v>0.558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="857235754"/>
+        <c:axId val="325698066"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="857235754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" defTabSz="914400">
+                  <a:defRPr sz="1000" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="x-none" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Learning Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="x-none" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325698066"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325698066"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857235754"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519430</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3549015" y="2153920"/>
+        <a:ext cx="5885815" cy="4391025"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,10 +2299,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
@@ -1073,122 +2328,123 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="B2" s="1">
+        <v>0.686</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.682</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.678</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.646</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.612</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.644</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.678</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.606</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.682</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.664</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.654</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.666</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.646</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.594</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.664</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.644</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.596</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.656</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.602</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.632</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.588</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.534</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.558</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>